--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Month</t>
   </si>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -81,8 +84,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,10 +417,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>42560</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>42530</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -434,13 +437,15 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>42558</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>42497</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3">
         <v>58515696</v>
       </c>
@@ -449,43 +454,6 @@
       </c>
       <c r="F3">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>42574</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>58515696</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>42576</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,7 +418,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3">
-        <v>42530</v>
+        <v>42497</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -433,12 +433,12 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>42497</v>
+        <v>42711</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -453,7 +453,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="target_distributor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -383,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,28 +458,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -451,7 +451,7 @@
         <v>8</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -79,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,17 +382,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -404,13 +406,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -418,19 +420,19 @@
       <c r="A2" s="3">
         <v>42497</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>58515696</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>410</v>
       </c>
     </row>
@@ -438,19 +440,19 @@
       <c r="A3" s="3">
         <v>42711</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>58515696</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>310</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Month</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -79,12 +82,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,77 +397,77 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>42497</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>58515696</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>42711</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>58515696</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="6">
+        <v>58515719</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
         <v>310</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/target/target_distributor.xlsx
+++ b/public/assets/uploads/Uploads/target/target_distributor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Month</t>
   </si>
@@ -32,27 +32,12 @@
   </si>
   <si>
     <t>Quantity(Kg/Ltr)</t>
-  </si>
-  <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -82,22 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,46 +407,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>42497</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>58515696</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>42711</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6">
-        <v>58515719</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>310</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
